--- a/271025_Results_Med/output/summary/merged_mod3.xlsx
+++ b/271025_Results_Med/output/summary/merged_mod3.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF165"/>
+  <dimension ref="A1:AF174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20037,34 +20037,34 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>50 (35.0%)</t>
+          <t>50 (32.9%)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>89 (57.4%)</t>
+          <t>89 (48.1%)</t>
         </is>
       </c>
       <c r="F132">
-        <v>0.0007</v>
+        <v>0.0001</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>27 (55.1%)</t>
+          <t>27 (54.0%)</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>51 (40.2%)</t>
+          <t>51 (34.5%)</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>61 (50.0%)</t>
+          <t>61 (43.9%)</t>
         </is>
       </c>
       <c r="J132">
-        <v>0.0959</v>
+        <v>0.0292</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -20073,22 +20073,22 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>5 (35.7%)</t>
+          <t>5 (29.4%)</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>19 (24.7%)</t>
+          <t>19 (24.4%)</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>26 (72.2%)</t>
+          <t>26 (55.3%)</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>72 (48.0%)</t>
+          <t>72 (41.4%)</t>
         </is>
       </c>
       <c r="P132">
@@ -20096,40 +20096,40 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>16 (51.6%)</t>
+          <t>16 (35.6%)</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>69 (45.7%)</t>
+          <t>69 (41.1%)</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>21 (53.8%)</t>
+          <t>21 (50.0%)</t>
         </is>
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>33 (42.9%)</t>
+          <t>33 (40.2%)</t>
         </is>
       </c>
       <c r="U132">
-        <v>0.0702</v>
+        <v>0.0008</v>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>20 (55.6%)</t>
+          <t>20 (45.5%)</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>9 (47.4%)</t>
+          <t>9 (45.0%)</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>72 (39.1%)</t>
+          <t>72 (36.0%)</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
@@ -20139,25 +20139,25 @@
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>37 (63.8%)</t>
+          <t>37 (51.4%)</t>
         </is>
       </c>
       <c r="AA132">
-        <v>0.0067</v>
+        <v>0.01</v>
       </c>
       <c r="AB132" t="inlineStr">
         <is>
-          <t>53 (41.4%)</t>
+          <t>53 (40.2%)</t>
         </is>
       </c>
       <c r="AC132" t="inlineStr">
         <is>
-          <t>44 (45.8%)</t>
+          <t>44 (41.1%)</t>
         </is>
       </c>
       <c r="AD132" t="inlineStr">
         <is>
-          <t>42 (56.8%)</t>
+          <t>42 (42.9%)</t>
         </is>
       </c>
       <c r="AE132">
@@ -20187,34 +20187,34 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>9 (6.3%)</t>
+          <t>9 (5.9%)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>3 (1.9%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="F133">
-        <v>0.0007</v>
+        <v>0.0001</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>3 (6.1%)</t>
+          <t>3 (6.0%)</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>5 (3.9%)</t>
+          <t>5 (3.4%)</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>4 (3.3%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="J133">
-        <v>0.0959</v>
+        <v>0.0292</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2 (14.3%)</t>
+          <t>2 (11.8%)</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -20233,12 +20233,12 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>1 (2.8%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>7 (4.7%)</t>
+          <t>7 (4.0%)</t>
         </is>
       </c>
       <c r="P133">
@@ -20251,35 +20251,35 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>7 (4.6%)</t>
+          <t>7 (4.2%)</t>
         </is>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>2 (5.1%)</t>
+          <t>2 (4.8%)</t>
         </is>
       </c>
       <c r="T133" t="inlineStr">
         <is>
-          <t>3 (3.9%)</t>
+          <t>3 (3.7%)</t>
         </is>
       </c>
       <c r="U133">
-        <v>0.0702</v>
+        <v>0.0008</v>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>2 (5.6%)</t>
+          <t>2 (4.5%)</t>
         </is>
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>1 (5.3%)</t>
+          <t>1 (5.0%)</t>
         </is>
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>8 (4.0%)</t>
         </is>
       </c>
       <c r="Y133" t="inlineStr">
@@ -20289,11 +20289,11 @@
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>1 (1.7%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="AA133">
-        <v>0.0067</v>
+        <v>0.01</v>
       </c>
       <c r="AB133" t="inlineStr">
         <is>
@@ -20302,12 +20302,12 @@
       </c>
       <c r="AC133" t="inlineStr">
         <is>
-          <t>5 (5.2%)</t>
+          <t>5 (4.7%)</t>
         </is>
       </c>
       <c r="AD133" t="inlineStr">
         <is>
-          <t>4 (5.4%)</t>
+          <t>4 (4.1%)</t>
         </is>
       </c>
       <c r="AE133">
@@ -20332,63 +20332,63 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Caminar</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>65 (45.5%)</t>
+          <t>2 (1.3%)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>41 (26.5%)</t>
+          <t>6 (3.2%)</t>
         </is>
       </c>
       <c r="F134">
-        <v>0.0007</v>
+        <v>0.0001</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>17 (34.7%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>55 (43.3%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>34 (27.9%)</t>
+          <t>5 (3.6%)</t>
         </is>
       </c>
       <c r="J134">
-        <v>0.0959</v>
+        <v>0.0292</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>7 (50.0%)</t>
+          <t>3 (17.6%)</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>55 (71.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>5 (13.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>38 (25.3%)</t>
+          <t>5 (2.9%)</t>
         </is>
       </c>
       <c r="P134">
@@ -20396,40 +20396,40 @@
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>5 (16.1%)</t>
+          <t>1 (2.2%)</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>56 (37.1%)</t>
+          <t>4 (2.4%)</t>
         </is>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>10 (25.6%)</t>
+          <t>1 (2.4%)</t>
         </is>
       </c>
       <c r="T134" t="inlineStr">
         <is>
-          <t>35 (45.5%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="U134">
-        <v>0.0702</v>
+        <v>0.0008</v>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>5 (13.9%)</t>
+          <t>2 (4.5%)</t>
         </is>
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>9 (47.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="X134" t="inlineStr">
         <is>
-          <t>83 (45.1%)</t>
+          <t>4 (2.0%)</t>
         </is>
       </c>
       <c r="Y134" t="inlineStr">
@@ -20439,25 +20439,25 @@
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>9 (15.5%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="AA134">
-        <v>0.0067</v>
+        <v>0.01</v>
       </c>
       <c r="AB134" t="inlineStr">
         <is>
-          <t>63 (49.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AC134" t="inlineStr">
         <is>
-          <t>37 (38.5%)</t>
+          <t>4 (3.7%)</t>
         </is>
       </c>
       <c r="AD134" t="inlineStr">
         <is>
-          <t>6 (8.1%)</t>
+          <t>4 (4.1%)</t>
         </is>
       </c>
       <c r="AE134">
@@ -20482,63 +20482,63 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>65 (42.8%)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2 (1.3%)</t>
+          <t>41 (22.2%)</t>
         </is>
       </c>
       <c r="F135">
-        <v>0.0007</v>
+        <v>0.0001</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>17 (34.0%)</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>55 (37.2%)</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>3 (2.5%)</t>
+          <t>34 (24.5%)</t>
         </is>
       </c>
       <c r="J135">
-        <v>0.0959</v>
+        <v>0.0292</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (41.2%)</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>1 (1.3%)</t>
+          <t>55 (70.5%)</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>1 (2.8%)</t>
+          <t>5 (10.6%)</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2 (1.3%)</t>
+          <t>38 (21.8%)</t>
         </is>
       </c>
       <c r="P135">
@@ -20546,40 +20546,40 @@
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>1 (3.2%)</t>
+          <t>5 (11.1%)</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>56 (33.3%)</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>1 (2.6%)</t>
+          <t>10 (23.8%)</t>
         </is>
       </c>
       <c r="T135" t="inlineStr">
         <is>
-          <t>1 (1.3%)</t>
+          <t>35 (42.7%)</t>
         </is>
       </c>
       <c r="U135">
-        <v>0.0702</v>
+        <v>0.0008</v>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>1 (2.8%)</t>
+          <t>5 (11.4%)</t>
         </is>
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (45.0%)</t>
         </is>
       </c>
       <c r="X135" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>83 (41.5%)</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr">
@@ -20589,25 +20589,25 @@
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>1 (1.7%)</t>
+          <t>9 (12.5%)</t>
         </is>
       </c>
       <c r="AA135">
-        <v>0.0067</v>
+        <v>0.01</v>
       </c>
       <c r="AB135" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>63 (47.7%)</t>
         </is>
       </c>
       <c r="AC135" t="inlineStr">
         <is>
-          <t>1 (1.0%)</t>
+          <t>37 (34.6%)</t>
         </is>
       </c>
       <c r="AD135" t="inlineStr">
         <is>
-          <t>2 (2.7%)</t>
+          <t>6 (6.1%)</t>
         </is>
       </c>
       <c r="AE135">
@@ -20632,43 +20632,43 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>17 (11.9%)</t>
+          <t>2 (1.3%)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>20 (12.9%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="F136">
-        <v>0.0007</v>
+        <v>0.0001</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2 (4.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>15 (11.8%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>20 (16.4%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="J136">
-        <v>0.0959</v>
+        <v>0.0292</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>2 (9.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -20683,12 +20683,12 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>3 (8.3%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>31 (20.7%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="P136">
@@ -20696,30 +20696,30 @@
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>9 (29.0%)</t>
+          <t>1 (2.2%)</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>18 (11.9%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>5 (12.8%)</t>
+          <t>1 (2.4%)</t>
         </is>
       </c>
       <c r="T136" t="inlineStr">
         <is>
-          <t>5 (6.5%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="U136">
-        <v>0.0702</v>
+        <v>0.0008</v>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>8 (22.2%)</t>
+          <t>1 (2.3%)</t>
         </is>
       </c>
       <c r="W136" t="inlineStr">
@@ -20729,7 +20729,7 @@
       </c>
       <c r="X136" t="inlineStr">
         <is>
-          <t>19 (10.3%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="Y136" t="inlineStr">
@@ -20739,25 +20739,25 @@
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>10 (17.2%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="AA136">
-        <v>0.0067</v>
+        <v>0.01</v>
       </c>
       <c r="AB136" t="inlineStr">
         <is>
-          <t>8 (6.2%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="AC136" t="inlineStr">
         <is>
-          <t>9 (9.4%)</t>
+          <t>1 (0.9%)</t>
         </is>
       </c>
       <c r="AD136" t="inlineStr">
         <is>
-          <t>20 (27.0%)</t>
+          <t>2 (2.0%)</t>
         </is>
       </c>
       <c r="AE136">
@@ -20772,49 +20772,49 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Condiciones físicas / salud</t>
+          <t>Taxi</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>7 (4.6%)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>4 (4.7%)</t>
+          <t>24 (13.0%)</t>
         </is>
       </c>
       <c r="F137">
-        <v>0.08799999999999999</v>
+        <v>0.0001</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>3 (15.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2 (2.7%)</t>
+          <t>19 (12.8%)</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>1 (1.7%)</t>
+          <t>12 (8.6%)</t>
         </is>
       </c>
       <c r="J137">
-        <v>0.0229</v>
+        <v>0.0292</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -20828,90 +20828,90 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>1 (4.3%)</t>
+          <t>1 (1.3%)</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>2 (13.3%)</t>
+          <t>11 (23.4%)</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>3 (2.9%)</t>
+          <t>19 (10.9%)</t>
         </is>
       </c>
       <c r="P137">
-        <v>0.3281</v>
+        <v>0</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>13 (28.9%)</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>1 (1.4%)</t>
+          <t>13 (7.7%)</t>
         </is>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>2 (10.5%)</t>
+          <t>2 (4.8%)</t>
         </is>
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>3 (9.4%)</t>
+          <t>3 (3.7%)</t>
         </is>
       </c>
       <c r="U137">
-        <v>0.314</v>
+        <v>0.0008</v>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>6 (13.6%)</t>
         </is>
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.0%)</t>
         </is>
       </c>
       <c r="X137" t="inlineStr">
         <is>
-          <t>2 (2.2%)</t>
+          <t>12 (6.0%)</t>
         </is>
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>0 (NaN%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>4 (10.0%)</t>
+          <t>12 (16.7%)</t>
         </is>
       </c>
       <c r="AA137">
-        <v>0.4163</v>
+        <v>0.01</v>
       </c>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>4 (3.0%)</t>
         </is>
       </c>
       <c r="AC137" t="inlineStr">
         <is>
-          <t>4 (9.1%)</t>
+          <t>7 (6.5%)</t>
         </is>
       </c>
       <c r="AD137" t="inlineStr">
         <is>
-          <t>1 (2.2%)</t>
+          <t>20 (20.4%)</t>
         </is>
       </c>
       <c r="AE137">
-        <v>0.0095</v>
+        <v>0</v>
       </c>
       <c r="AF137" t="inlineStr">
         <is>
@@ -20922,53 +20922,53 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Inseguridad / acoso</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>6 (9.1%)</t>
+          <t>17 (11.2%)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>20 (10.8%)</t>
         </is>
       </c>
       <c r="F138">
-        <v>0.08799999999999999</v>
+        <v>0.0001</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>3 (15.0%)</t>
+          <t>2 (4.0%)</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2 (2.7%)</t>
+          <t>15 (10.1%)</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>3 (5.2%)</t>
+          <t>20 (14.4%)</t>
         </is>
       </c>
       <c r="J138">
-        <v>0.0229</v>
+        <v>0.0292</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>1 (33.3%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -20978,48 +20978,48 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>1 (4.3%)</t>
+          <t>1 (1.3%)</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>1 (6.7%)</t>
+          <t>3 (6.4%)</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>5 (4.9%)</t>
+          <t>31 (17.8%)</t>
         </is>
       </c>
       <c r="P138">
-        <v>0.3281</v>
+        <v>0</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>1 (3.7%)</t>
+          <t>9 (20.0%)</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>3 (4.1%)</t>
+          <t>18 (10.7%)</t>
         </is>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>2 (10.5%)</t>
+          <t>5 (11.9%)</t>
         </is>
       </c>
       <c r="T138" t="inlineStr">
         <is>
-          <t>2 (6.2%)</t>
+          <t>5 (6.1%)</t>
         </is>
       </c>
       <c r="U138">
-        <v>0.314</v>
+        <v>0.0008</v>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>1 (6.7%)</t>
+          <t>8 (18.2%)</t>
         </is>
       </c>
       <c r="W138" t="inlineStr">
@@ -21029,39 +21029,39 @@
       </c>
       <c r="X138" t="inlineStr">
         <is>
-          <t>7 (7.8%)</t>
+          <t>19 (9.5%)</t>
         </is>
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>0 (NaN%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (13.9%)</t>
         </is>
       </c>
       <c r="AA138">
-        <v>0.4163</v>
+        <v>0.01</v>
       </c>
       <c r="AB138" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>8 (6.1%)</t>
         </is>
       </c>
       <c r="AC138" t="inlineStr">
         <is>
-          <t>5 (11.4%)</t>
+          <t>9 (8.4%)</t>
         </is>
       </c>
       <c r="AD138" t="inlineStr">
         <is>
-          <t>2 (4.4%)</t>
+          <t>20 (20.4%)</t>
         </is>
       </c>
       <c r="AE138">
-        <v>0.0095</v>
+        <v>0</v>
       </c>
       <c r="AF138" t="inlineStr">
         <is>
@@ -21082,136 +21082,136 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Limitaciones económicas</t>
+          <t>Condiciones físicas / salud</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>45 (68.2%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>70 (82.4%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="F139">
-        <v>0.08799999999999999</v>
+        <v>0.0997</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>13 (65.0%)</t>
+          <t>3 (5.4%)</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>55 (75.3%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>47 (81.0%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="J139">
-        <v>0.0229</v>
+        <v>0.0202</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>2 (66.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>6 (75.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>15 (65.2%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>11 (73.3%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>81 (79.4%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="P139">
-        <v>0.3281</v>
+        <v>0</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>20 (74.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>59 (80.8%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>12 (63.2%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="T139" t="inlineStr">
         <is>
-          <t>24 (75.0%)</t>
+          <t>3 (3.2%)</t>
         </is>
       </c>
       <c r="U139">
-        <v>0.314</v>
+        <v>0.3404</v>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>11 (73.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>5 (83.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="X139" t="inlineStr">
         <is>
-          <t>68 (75.6%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>0 (NaN%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>31 (77.5%)</t>
+          <t>4 (4.8%)</t>
         </is>
       </c>
       <c r="AA139">
-        <v>0.4163</v>
+        <v>0.0028</v>
       </c>
       <c r="AB139" t="inlineStr">
         <is>
-          <t>56 (90.3%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="AC139" t="inlineStr">
         <is>
-          <t>26 (59.1%)</t>
+          <t>4 (3.1%)</t>
         </is>
       </c>
       <c r="AD139" t="inlineStr">
         <is>
-          <t>33 (73.3%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="AE139">
-        <v>0.0095</v>
+        <v>0.0286</v>
       </c>
       <c r="AF139" t="inlineStr">
         <is>
@@ -21232,39 +21232,39 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Tiempo / disponibilidad</t>
+          <t>Falta de infraestructura / distancia</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>13 (19.7%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>9 (10.6%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="F140">
-        <v>0.08799999999999999</v>
+        <v>0.0997</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>1 (5.0%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>14 (19.2%)</t>
+          <t>4 (2.2%)</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>7 (12.1%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="J140">
-        <v>0.0229</v>
+        <v>0.0202</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -21273,95 +21273,95 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2 (25.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>6 (26.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>1 (6.7%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>13 (12.7%)</t>
+          <t>5 (2.2%)</t>
         </is>
       </c>
       <c r="P140">
-        <v>0.3281</v>
+        <v>0</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>6 (22.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>10 (13.7%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>3 (15.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t>3 (9.4%)</t>
+          <t>3 (3.2%)</t>
         </is>
       </c>
       <c r="U140">
-        <v>0.314</v>
+        <v>0.3404</v>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>3 (20.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="W140" t="inlineStr">
         <is>
-          <t>1 (16.7%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="X140" t="inlineStr">
         <is>
-          <t>13 (14.4%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>0 (NaN%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>5 (12.5%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="AA140">
-        <v>0.4163</v>
+        <v>0.0028</v>
       </c>
       <c r="AB140" t="inlineStr">
         <is>
-          <t>4 (6.5%)</t>
+          <t>4 (2.7%)</t>
         </is>
       </c>
       <c r="AC140" t="inlineStr">
         <is>
-          <t>9 (20.5%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="AD140" t="inlineStr">
         <is>
-          <t>9 (20.0%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="AE140">
-        <v>0.0095</v>
+        <v>0.0286</v>
       </c>
       <c r="AF140" t="inlineStr">
         <is>
@@ -21372,104 +21372,104 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Otra fuente</t>
+          <t>Inseguridad / acoso</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>3 (2.7%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="F141">
-        <v>0.8934</v>
+        <v>0.0997</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (5.4%)</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>4 (4.0%)</t>
+          <t>6 (3.3%)</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
+          <t>3 (1.9%)</t>
+        </is>
+      </c>
+      <c r="J141">
+        <v>0.0202</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>1 (4.8%)</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
           <t>1 (1.2%)</t>
         </is>
       </c>
-      <c r="J141">
-        <v>0.3829</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>1 (2.3%)</t>
-        </is>
-      </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>3 (2.6%)</t>
+          <t>9 (4.0%)</t>
         </is>
       </c>
       <c r="P141">
-        <v>0.9647</v>
+        <v>0</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>1 (2.7%)</t>
+          <t>2 (3.3%)</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>3 (3.1%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>1 (5.3%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="T141" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (4.2%)</t>
         </is>
       </c>
       <c r="U141">
-        <v>0.5901999999999999</v>
+        <v>0.3404</v>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>1 (2.4%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="W141" t="inlineStr">
@@ -21479,39 +21479,39 @@
       </c>
       <c r="X141" t="inlineStr">
         <is>
-          <t>3 (3.0%)</t>
+          <t>9 (3.9%)</t>
         </is>
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>1 (2.2%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="AA141">
-        <v>0.9856</v>
+        <v>0.0028</v>
       </c>
       <c r="AB141" t="inlineStr">
         <is>
-          <t>2 (3.4%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="AC141" t="inlineStr">
         <is>
-          <t>1 (1.7%)</t>
+          <t>6 (4.6%)</t>
         </is>
       </c>
       <c r="AD141" t="inlineStr">
         <is>
-          <t>2 (2.5%)</t>
+          <t>4 (3.3%)</t>
         </is>
       </c>
       <c r="AE141">
-        <v>0.8357</v>
+        <v>0.0286</v>
       </c>
       <c r="AF141" t="inlineStr">
         <is>
@@ -21522,146 +21522,146 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Vehículos motorizados</t>
+          <t>Limitaciones económicas</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>110 (97.3%)</t>
+          <t>45 (23.9%)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>83 (97.6%)</t>
+          <t>70 (33.3%)</t>
         </is>
       </c>
       <c r="F142">
-        <v>0.8934</v>
+        <v>0.0997</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>15 (100.0%)</t>
+          <t>13 (23.2%)</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>95 (96.0%)</t>
+          <t>55 (30.4%)</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>83 (98.8%)</t>
+          <t>47 (29.2%)</t>
         </is>
       </c>
       <c r="J142">
-        <v>0.3829</v>
+        <v>0.0202</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>7 (100.0%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>8 (100.0%)</t>
+          <t>6 (33.3%)</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>42 (97.7%)</t>
+          <t>15 (17.4%)</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>25 (96.2%)</t>
+          <t>11 (23.4%)</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>111 (97.4%)</t>
+          <t>81 (35.8%)</t>
         </is>
       </c>
       <c r="P142">
-        <v>0.9647</v>
+        <v>0</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>36 (97.3%)</t>
+          <t>20 (32.8%)</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>93 (96.9%)</t>
+          <t>59 (30.6%)</t>
         </is>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>18 (94.7%)</t>
+          <t>12 (24.5%)</t>
         </is>
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>46 (100.0%)</t>
+          <t>24 (25.3%)</t>
         </is>
       </c>
       <c r="U142">
-        <v>0.5901999999999999</v>
+        <v>0.3404</v>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>41 (97.6%)</t>
+          <t>11 (20.0%)</t>
         </is>
       </c>
       <c r="W142" t="inlineStr">
         <is>
-          <t>9 (100.0%)</t>
+          <t>5 (19.2%)</t>
         </is>
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>98 (97.0%)</t>
+          <t>68 (29.4%)</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>1 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>44 (97.8%)</t>
+          <t>31 (36.9%)</t>
         </is>
       </c>
       <c r="AA142">
-        <v>0.9856</v>
+        <v>0.0028</v>
       </c>
       <c r="AB142" t="inlineStr">
         <is>
-          <t>57 (96.6%)</t>
+          <t>56 (38.4%)</t>
         </is>
       </c>
       <c r="AC142" t="inlineStr">
         <is>
-          <t>59 (98.3%)</t>
+          <t>26 (20.0%)</t>
         </is>
       </c>
       <c r="AD142" t="inlineStr">
         <is>
-          <t>77 (97.5%)</t>
+          <t>33 (27.0%)</t>
         </is>
       </c>
       <c r="AE142">
-        <v>0.8357</v>
+        <v>0.0286</v>
       </c>
       <c r="AF142" t="inlineStr">
         <is>
@@ -21672,114 +21672,114 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Modo actual</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>35 (23.6%)</t>
+          <t>84 (44.7%)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>47 (28.1%)</t>
+          <t>72 (34.3%)</t>
         </is>
       </c>
       <c r="F143">
-        <v>0.1395</v>
+        <v>0.0997</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>9 (28.1%)</t>
+          <t>30 (53.6%)</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>37 (23.3%)</t>
+          <t>58 (32.0%)</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>36 (29.0%)</t>
+          <t>68 (42.2%)</t>
         </is>
       </c>
       <c r="J143">
-        <v>0.0003</v>
+        <v>0.0202</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>16 (76.2%)</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>2 (13.3%)</t>
+          <t>5 (27.8%)</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>11 (16.4%)</t>
+          <t>55 (64.0%)</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>9 (30.0%)</t>
+          <t>17 (36.2%)</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>58 (31.2%)</t>
+          <t>63 (27.9%)</t>
         </is>
       </c>
       <c r="P143">
-        <v>0.1325</v>
+        <v>0</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>9 (16.4%)</t>
+          <t>24 (39.3%)</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>49 (31.6%)</t>
+          <t>72 (37.3%)</t>
         </is>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>7 (17.9%)</t>
+          <t>24 (49.0%)</t>
         </is>
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>17 (25.8%)</t>
+          <t>36 (37.9%)</t>
         </is>
       </c>
       <c r="U143">
-        <v>0.0193</v>
+        <v>0.3404</v>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>16 (37.2%)</t>
+          <t>21 (38.2%)</t>
         </is>
       </c>
       <c r="W143" t="inlineStr">
         <is>
-          <t>8 (42.1%)</t>
+          <t>10 (38.5%)</t>
         </is>
       </c>
       <c r="X143" t="inlineStr">
         <is>
-          <t>39 (21.3%)</t>
+          <t>100 (43.3%)</t>
         </is>
       </c>
       <c r="Y143" t="inlineStr">
@@ -21789,29 +21789,29 @@
       </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>19 (27.9%)</t>
+          <t>25 (29.8%)</t>
         </is>
       </c>
       <c r="AA143">
-        <v>0.1967</v>
+        <v>0.0028</v>
       </c>
       <c r="AB143" t="inlineStr">
         <is>
-          <t>36 (31.0%)</t>
+          <t>51 (34.9%)</t>
         </is>
       </c>
       <c r="AC143" t="inlineStr">
         <is>
-          <t>18 (17.8%)</t>
+          <t>60 (46.2%)</t>
         </is>
       </c>
       <c r="AD143" t="inlineStr">
         <is>
-          <t>28 (28.6%)</t>
+          <t>45 (36.9%)</t>
         </is>
       </c>
       <c r="AE143">
-        <v>0.1082</v>
+        <v>0.0286</v>
       </c>
       <c r="AF143" t="inlineStr">
         <is>
@@ -21822,146 +21822,146 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Camión</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>34 (18.1%)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>5 (3.0%)</t>
+          <t>47 (22.4%)</t>
         </is>
       </c>
       <c r="F144">
-        <v>0.1395</v>
+        <v>0.0997</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>4 (12.5%)</t>
+          <t>5 (8.9%)</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>42 (23.2%)</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2 (1.6%)</t>
+          <t>34 (21.1%)</t>
         </is>
       </c>
       <c r="J144">
-        <v>0.0003</v>
+        <v>0.0202</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (27.8%)</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>8 (9.3%)</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>1 (3.3%)</t>
+          <t>14 (29.8%)</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>52 (23.0%)</t>
         </is>
       </c>
       <c r="P144">
-        <v>0.1325</v>
+        <v>0</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (14.8%)</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>44 (22.8%)</t>
         </is>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>3 (7.7%)</t>
+          <t>6 (12.2%)</t>
         </is>
       </c>
       <c r="T144" t="inlineStr">
         <is>
-          <t>4 (6.1%)</t>
+          <t>22 (23.2%)</t>
         </is>
       </c>
       <c r="U144">
-        <v>0.0193</v>
+        <v>0.3404</v>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>19 (34.5%)</t>
         </is>
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (34.6%)</t>
         </is>
       </c>
       <c r="X144" t="inlineStr">
         <is>
-          <t>6 (3.3%)</t>
+          <t>36 (15.6%)</t>
         </is>
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>1 (1.5%)</t>
+          <t>16 (19.0%)</t>
         </is>
       </c>
       <c r="AA144">
-        <v>0.1967</v>
+        <v>0.0028</v>
       </c>
       <c r="AB144" t="inlineStr">
         <is>
-          <t>3 (2.6%)</t>
+          <t>28 (19.2%)</t>
         </is>
       </c>
       <c r="AC144" t="inlineStr">
         <is>
-          <t>4 (4.0%)</t>
+          <t>24 (18.5%)</t>
         </is>
       </c>
       <c r="AD144" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>29 (23.8%)</t>
         </is>
       </c>
       <c r="AE144">
-        <v>0.1082</v>
+        <v>0.0286</v>
       </c>
       <c r="AF144" t="inlineStr">
         <is>
@@ -21972,146 +21972,146 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Tiempo / disponibilidad</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>10 (6.8%)</t>
+          <t>13 (6.9%)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>14 (8.4%)</t>
+          <t>9 (4.3%)</t>
         </is>
       </c>
       <c r="F145">
-        <v>0.1395</v>
+        <v>0.0997</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>6 (18.8%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>9 (5.7%)</t>
+          <t>14 (7.7%)</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>9 (7.3%)</t>
+          <t>7 (4.3%)</t>
         </is>
       </c>
       <c r="J145">
-        <v>0.0003</v>
+        <v>0.0202</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>1 (6.7%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>8 (11.9%)</t>
+          <t>6 (7.0%)</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>1 (3.3%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>12 (6.5%)</t>
+          <t>13 (5.8%)</t>
         </is>
       </c>
       <c r="P145">
-        <v>0.1325</v>
+        <v>0</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>5 (9.1%)</t>
+          <t>6 (9.8%)</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>10 (6.5%)</t>
+          <t>10 (5.2%)</t>
         </is>
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>5 (12.8%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="T145" t="inlineStr">
         <is>
-          <t>4 (6.1%)</t>
+          <t>3 (3.2%)</t>
         </is>
       </c>
       <c r="U145">
-        <v>0.0193</v>
+        <v>0.3404</v>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>1 (2.3%)</t>
+          <t>3 (5.5%)</t>
         </is>
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="X145" t="inlineStr">
         <is>
-          <t>16 (8.7%)</t>
+          <t>13 (5.6%)</t>
         </is>
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>1 (50.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>6 (8.8%)</t>
+          <t>5 (6.0%)</t>
         </is>
       </c>
       <c r="AA145">
-        <v>0.1967</v>
+        <v>0.0028</v>
       </c>
       <c r="AB145" t="inlineStr">
         <is>
-          <t>7 (6.0%)</t>
+          <t>4 (2.7%)</t>
         </is>
       </c>
       <c r="AC145" t="inlineStr">
         <is>
-          <t>12 (11.9%)</t>
+          <t>9 (6.9%)</t>
         </is>
       </c>
       <c r="AD145" t="inlineStr">
         <is>
-          <t>5 (5.1%)</t>
+          <t>9 (7.4%)</t>
         </is>
       </c>
       <c r="AE145">
-        <v>0.1082</v>
+        <v>0.0286</v>
       </c>
       <c r="AF145" t="inlineStr">
         <is>
@@ -22122,146 +22122,146 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Industria/Obras</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>4 (2.7%)</t>
+          <t>35 (18.6%)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>12 (7.2%)</t>
+          <t>62 (29.5%)</t>
         </is>
       </c>
       <c r="F146">
-        <v>0.1395</v>
+        <v>0.0067</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>21 (37.5%)</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>9 (5.7%)</t>
+          <t>35 (19.3%)</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>7 (5.6%)</t>
+          <t>41 (25.5%)</t>
         </is>
       </c>
       <c r="J146">
-        <v>0.0003</v>
+        <v>0.0227</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>1 (5.9%)</t>
+          <t>9 (42.9%)</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>2 (13.3%)</t>
+          <t>4 (22.2%)</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>25 (29.1%)</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>1 (3.3%)</t>
+          <t>8 (17.0%)</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>10 (5.4%)</t>
+          <t>51 (22.6%)</t>
         </is>
       </c>
       <c r="P146">
-        <v>0.1325</v>
+        <v>0.4171</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>10 (16.4%)</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>10 (6.5%)</t>
+          <t>44 (22.8%)</t>
         </is>
       </c>
       <c r="S146" t="inlineStr">
         <is>
-          <t>2 (5.1%)</t>
+          <t>19 (38.8%)</t>
         </is>
       </c>
       <c r="T146" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>24 (25.3%)</t>
         </is>
       </c>
       <c r="U146">
-        <v>0.0193</v>
+        <v>0.6197</v>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>2 (4.7%)</t>
+          <t>3 (5.5%)</t>
         </is>
       </c>
       <c r="W146" t="inlineStr">
         <is>
-          <t>2 (10.5%)</t>
+          <t>8 (30.8%)</t>
         </is>
       </c>
       <c r="X146" t="inlineStr">
         <is>
-          <t>7 (3.8%)</t>
+          <t>67 (29.0%)</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>5 (7.4%)</t>
+          <t>18 (21.4%)</t>
         </is>
       </c>
       <c r="AA146">
-        <v>0.1967</v>
+        <v>0.1034</v>
       </c>
       <c r="AB146" t="inlineStr">
         <is>
-          <t>7 (6.0%)</t>
+          <t>37 (25.3%)</t>
         </is>
       </c>
       <c r="AC146" t="inlineStr">
         <is>
-          <t>6 (5.9%)</t>
+          <t>43 (33.1%)</t>
         </is>
       </c>
       <c r="AD146" t="inlineStr">
         <is>
-          <t>3 (3.1%)</t>
+          <t>17 (13.9%)</t>
         </is>
       </c>
       <c r="AE146">
-        <v>0.1082</v>
+        <v>0.001</v>
       </c>
       <c r="AF146" t="inlineStr">
         <is>
@@ -22272,146 +22272,146 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otra fuente</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>97 (65.5%)</t>
+          <t>5 (2.7%)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>89 (53.3%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="F147">
-        <v>0.1395</v>
+        <v>0.0067</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>13 (40.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>103 (64.8%)</t>
+          <t>4 (2.2%)</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>70 (56.5%)</t>
+          <t>5 (3.1%)</t>
         </is>
       </c>
       <c r="J147">
-        <v>0.0003</v>
+        <v>0.0227</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>10 (58.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>10 (66.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>44 (65.7%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>18 (60.0%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>104 (55.9%)</t>
+          <t>6 (2.7%)</t>
         </is>
       </c>
       <c r="P147">
-        <v>0.1325</v>
+        <v>0.4171</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>39 (70.9%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>86 (55.5%)</t>
+          <t>5 (2.6%)</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>22 (56.4%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>39 (59.1%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="U147">
-        <v>0.0193</v>
+        <v>0.6197</v>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>24 (55.8%)</t>
+          <t>1 (1.8%)</t>
         </is>
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>9 (47.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>115 (62.8%)</t>
+          <t>7 (3.0%)</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>1 (50.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>37 (54.4%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="AA147">
-        <v>0.1967</v>
+        <v>0.1034</v>
       </c>
       <c r="AB147" t="inlineStr">
         <is>
-          <t>63 (54.3%)</t>
+          <t>6 (4.1%)</t>
         </is>
       </c>
       <c r="AC147" t="inlineStr">
         <is>
-          <t>61 (60.4%)</t>
+          <t>1 (0.8%)</t>
         </is>
       </c>
       <c r="AD147" t="inlineStr">
         <is>
-          <t>62 (63.3%)</t>
+          <t>2 (1.6%)</t>
         </is>
       </c>
       <c r="AE147">
-        <v>0.1082</v>
+        <v>0.001</v>
       </c>
       <c r="AF147" t="inlineStr">
         <is>
@@ -22422,114 +22422,114 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Condiciones climáticas</t>
+          <t>Productos químicos</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>15 (8.8%)</t>
+          <t>9 (4.8%)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>18 (8.9%)</t>
+          <t>18 (8.6%)</t>
         </is>
       </c>
       <c r="F148">
-        <v>0.1337</v>
+        <v>0.0067</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>5 (9.1%)</t>
+          <t>4 (7.1%)</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>17 (10.2%)</t>
+          <t>13 (7.2%)</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>11 (7.3%)</t>
+          <t>10 (6.2%)</t>
         </is>
       </c>
       <c r="J148">
-        <v>0.0189</v>
+        <v>0.0227</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>2 (10.0%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>3 (17.6%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>9 (11.1%)</t>
+          <t>4 (4.7%)</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>3 (6.7%)</t>
+          <t>3 (6.4%)</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>16 (7.6%)</t>
+          <t>16 (7.1%)</t>
         </is>
       </c>
       <c r="P148">
-        <v>0.0226</v>
+        <v>0.4171</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>6 (10.5%)</t>
+          <t>4 (6.6%)</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>12 (6.7%)</t>
+          <t>13 (6.7%)</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>4 (8.3%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="T148" t="inlineStr">
         <is>
-          <t>11 (12.5%)</t>
+          <t>6 (6.3%)</t>
         </is>
       </c>
       <c r="U148">
-        <v>0.0523</v>
+        <v>0.6197</v>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>4 (7.8%)</t>
+          <t>3 (5.5%)</t>
         </is>
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>3 (12.0%)</t>
+          <t>3 (11.5%)</t>
         </is>
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>19 (8.9%)</t>
+          <t>14 (6.1%)</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
@@ -22539,29 +22539,29 @@
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>7 (8.6%)</t>
+          <t>7 (8.3%)</t>
         </is>
       </c>
       <c r="AA148">
-        <v>0.4521</v>
+        <v>0.1034</v>
       </c>
       <c r="AB148" t="inlineStr">
         <is>
-          <t>14 (10.6%)</t>
+          <t>15 (10.3%)</t>
         </is>
       </c>
       <c r="AC148" t="inlineStr">
         <is>
-          <t>10 (7.9%)</t>
+          <t>4 (3.1%)</t>
         </is>
       </c>
       <c r="AD148" t="inlineStr">
         <is>
-          <t>9 (7.9%)</t>
+          <t>8 (6.6%)</t>
         </is>
       </c>
       <c r="AE148">
-        <v>0.0469</v>
+        <v>0.001</v>
       </c>
       <c r="AF148" t="inlineStr">
         <is>
@@ -22572,49 +22572,49 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Quema de residuos</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>27 (15.9%)</t>
+          <t>7 (3.7%)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>18 (8.9%)</t>
+          <t>9 (4.3%)</t>
         </is>
       </c>
       <c r="F149">
-        <v>0.1337</v>
+        <v>0.0067</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>3 (5.5%)</t>
+          <t>5 (8.9%)</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>26 (15.6%)</t>
+          <t>7 (3.9%)</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>16 (10.6%)</t>
+          <t>4 (2.5%)</t>
         </is>
       </c>
       <c r="J149">
-        <v>0.0189</v>
+        <v>0.0227</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -22623,63 +22623,63 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>7 (41.2%)</t>
+          <t>3 (16.7%)</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>13 (16.0%)</t>
+          <t>3 (3.5%)</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>4 (8.9%)</t>
+          <t>3 (6.4%)</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>21 (10.0%)</t>
+          <t>7 (3.1%)</t>
         </is>
       </c>
       <c r="P149">
-        <v>0.0226</v>
+        <v>0.4171</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>7 (12.3%)</t>
+          <t>3 (4.9%)</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>29 (16.1%)</t>
+          <t>7 (3.6%)</t>
         </is>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t>8 (9.1%)</t>
+          <t>4 (4.2%)</t>
         </is>
       </c>
       <c r="U149">
-        <v>0.0523</v>
+        <v>0.6197</v>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>7 (13.7%)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>6 (24.0%)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="X149" t="inlineStr">
         <is>
-          <t>23 (10.7%)</t>
+          <t>11 (4.8%)</t>
         </is>
       </c>
       <c r="Y149" t="inlineStr">
@@ -22689,29 +22689,29 @@
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>9 (11.1%)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="AA149">
-        <v>0.4521</v>
+        <v>0.1034</v>
       </c>
       <c r="AB149" t="inlineStr">
         <is>
-          <t>24 (18.2%)</t>
+          <t>5 (3.4%)</t>
         </is>
       </c>
       <c r="AC149" t="inlineStr">
         <is>
-          <t>9 (7.1%)</t>
+          <t>6 (4.6%)</t>
         </is>
       </c>
       <c r="AD149" t="inlineStr">
         <is>
-          <t>12 (10.5%)</t>
+          <t>5 (4.1%)</t>
         </is>
       </c>
       <c r="AE149">
-        <v>0.0469</v>
+        <v>0.001</v>
       </c>
       <c r="AF149" t="inlineStr">
         <is>
@@ -22722,146 +22722,146 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Falta de información</t>
+          <t>Vehículos motorizados</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>20 (11.8%)</t>
+          <t>110 (58.5%)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>31 (15.3%)</t>
+          <t>83 (39.5%)</t>
         </is>
       </c>
       <c r="F150">
-        <v>0.1337</v>
+        <v>0.0067</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>15 (26.8%)</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>31 (18.6%)</t>
+          <t>95 (52.5%)</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>18 (11.9%)</t>
+          <t>83 (51.6%)</t>
         </is>
       </c>
       <c r="J150">
-        <v>0.0189</v>
+        <v>0.0227</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2 (10.0%)</t>
+          <t>7 (33.3%)</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>8 (44.4%)</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>5 (6.2%)</t>
+          <t>42 (48.8%)</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>5 (11.1%)</t>
+          <t>25 (53.2%)</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>37 (17.6%)</t>
+          <t>111 (49.1%)</t>
         </is>
       </c>
       <c r="P150">
-        <v>0.0226</v>
+        <v>0.4171</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>11 (19.3%)</t>
+          <t>36 (59.0%)</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>26 (14.4%)</t>
+          <t>93 (48.2%)</t>
         </is>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>7 (14.6%)</t>
+          <t>18 (36.7%)</t>
         </is>
       </c>
       <c r="T150" t="inlineStr">
         <is>
-          <t>7 (8.0%)</t>
+          <t>46 (48.4%)</t>
         </is>
       </c>
       <c r="U150">
-        <v>0.0523</v>
+        <v>0.6197</v>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>8 (15.7%)</t>
+          <t>41 (74.5%)</t>
         </is>
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>1 (4.0%)</t>
+          <t>9 (34.6%)</t>
         </is>
       </c>
       <c r="X150" t="inlineStr">
         <is>
-          <t>28 (13.1%)</t>
+          <t>98 (42.4%)</t>
         </is>
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>14 (17.3%)</t>
+          <t>44 (52.4%)</t>
         </is>
       </c>
       <c r="AA150">
-        <v>0.4521</v>
+        <v>0.1034</v>
       </c>
       <c r="AB150" t="inlineStr">
         <is>
-          <t>21 (15.9%)</t>
+          <t>57 (39.0%)</t>
         </is>
       </c>
       <c r="AC150" t="inlineStr">
         <is>
-          <t>13 (10.2%)</t>
+          <t>59 (45.4%)</t>
         </is>
       </c>
       <c r="AD150" t="inlineStr">
         <is>
-          <t>17 (14.9%)</t>
+          <t>77 (63.1%)</t>
         </is>
       </c>
       <c r="AE150">
-        <v>0.0469</v>
+        <v>0.001</v>
       </c>
       <c r="AF150" t="inlineStr">
         <is>
@@ -22872,146 +22872,146 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Falta de infraestructura</t>
+          <t>Vertederos (basureros) y rellenos sanitarios</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>39 (22.9%)</t>
+          <t>22 (11.7%)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>34 (16.7%)</t>
+          <t>34 (16.2%)</t>
         </is>
       </c>
       <c r="F151">
-        <v>0.1337</v>
+        <v>0.0067</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>12 (21.8%)</t>
+          <t>11 (19.6%)</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>34 (20.4%)</t>
+          <t>27 (14.9%)</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>27 (17.9%)</t>
+          <t>18 (11.2%)</t>
         </is>
       </c>
       <c r="J151">
-        <v>0.0189</v>
+        <v>0.0227</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>6 (30.0%)</t>
+          <t>3 (14.3%)</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>17 (21.0%)</t>
+          <t>11 (12.8%)</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>12 (26.7%)</t>
+          <t>6 (12.8%)</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>38 (18.1%)</t>
+          <t>35 (15.5%)</t>
         </is>
       </c>
       <c r="P151">
-        <v>0.0226</v>
+        <v>0.4171</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>10 (17.5%)</t>
+          <t>7 (11.5%)</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>33 (18.3%)</t>
+          <t>31 (16.1%)</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>7 (14.6%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="T151" t="inlineStr">
         <is>
-          <t>23 (26.1%)</t>
+          <t>14 (14.7%)</t>
         </is>
       </c>
       <c r="U151">
-        <v>0.0523</v>
+        <v>0.6197</v>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>11 (21.6%)</t>
+          <t>5 (9.1%)</t>
         </is>
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>6 (24.0%)</t>
+          <t>5 (19.2%)</t>
         </is>
       </c>
       <c r="X151" t="inlineStr">
         <is>
-          <t>39 (18.2%)</t>
+          <t>34 (14.7%)</t>
         </is>
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>2 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>15 (18.5%)</t>
+          <t>12 (14.3%)</t>
         </is>
       </c>
       <c r="AA151">
-        <v>0.4521</v>
+        <v>0.1034</v>
       </c>
       <c r="AB151" t="inlineStr">
         <is>
-          <t>22 (16.7%)</t>
+          <t>26 (17.8%)</t>
         </is>
       </c>
       <c r="AC151" t="inlineStr">
         <is>
-          <t>28 (22.0%)</t>
+          <t>17 (13.1%)</t>
         </is>
       </c>
       <c r="AD151" t="inlineStr">
         <is>
-          <t>23 (20.2%)</t>
+          <t>13 (10.7%)</t>
         </is>
       </c>
       <c r="AE151">
-        <v>0.0469</v>
+        <v>0.001</v>
       </c>
       <c r="AF151" t="inlineStr">
         <is>
@@ -23022,114 +23022,114 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Inseguridad / violencia</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>61 (35.9%)</t>
+          <t>35 (18.7%)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>92 (45.3%)</t>
+          <t>47 (22.4%)</t>
         </is>
       </c>
       <c r="F152">
-        <v>0.1337</v>
+        <v>0.1988</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>31 (56.4%)</t>
+          <t>9 (16.1%)</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>52 (31.1%)</t>
+          <t>37 (20.6%)</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>70 (46.4%)</t>
+          <t>36 (22.4%)</t>
         </is>
       </c>
       <c r="J152">
-        <v>0.0189</v>
+        <v>0</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>8 (40.0%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>5 (29.4%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>33 (40.7%)</t>
+          <t>11 (12.8%)</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>20 (44.4%)</t>
+          <t>9 (19.1%)</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>87 (41.4%)</t>
+          <t>58 (25.8%)</t>
         </is>
       </c>
       <c r="P152">
-        <v>0.0226</v>
+        <v>0.1015</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>22 (38.6%)</t>
+          <t>9 (15.0%)</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>71 (39.4%)</t>
+          <t>49 (25.4%)</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>23 (47.9%)</t>
+          <t>7 (14.3%)</t>
         </is>
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>37 (42.0%)</t>
+          <t>17 (17.9%)</t>
         </is>
       </c>
       <c r="U152">
-        <v>0.0523</v>
+        <v>0.0091</v>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>17 (33.3%)</t>
+          <t>16 (29.6%)</t>
         </is>
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>7 (28.0%)</t>
+          <t>8 (30.8%)</t>
         </is>
       </c>
       <c r="X152" t="inlineStr">
         <is>
-          <t>95 (44.4%)</t>
+          <t>39 (16.9%)</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
@@ -23139,29 +23139,29 @@
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>34 (42.0%)</t>
+          <t>19 (22.6%)</t>
         </is>
       </c>
       <c r="AA152">
-        <v>0.4521</v>
+        <v>0.2036</v>
       </c>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>42 (31.8%)</t>
+          <t>36 (24.7%)</t>
         </is>
       </c>
       <c r="AC152" t="inlineStr">
         <is>
-          <t>64 (50.4%)</t>
+          <t>18 (13.8%)</t>
         </is>
       </c>
       <c r="AD152" t="inlineStr">
         <is>
-          <t>47 (41.2%)</t>
+          <t>28 (23.1%)</t>
         </is>
       </c>
       <c r="AE152">
-        <v>0.0469</v>
+        <v>0.2125</v>
       </c>
       <c r="AF152" t="inlineStr">
         <is>
@@ -23172,114 +23172,114 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Camión</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>8 (4.7%)</t>
+          <t>41 (21.9%)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>10 (4.9%)</t>
+          <t>48 (22.9%)</t>
         </is>
       </c>
       <c r="F153">
-        <v>0.1337</v>
+        <v>0.1988</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2 (3.6%)</t>
+          <t>28 (50.0%)</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>7 (4.2%)</t>
+          <t>22 (12.2%)</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>9 (6.0%)</t>
+          <t>39 (24.2%)</t>
         </is>
       </c>
       <c r="J153">
-        <v>0.0189</v>
+        <v>0</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>2 (10.0%)</t>
+          <t>6 (28.6%)</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (16.7%)</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>4 (4.9%)</t>
+          <t>21 (24.4%)</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>1 (2.2%)</t>
+          <t>18 (38.3%)</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>11 (5.2%)</t>
+          <t>41 (18.2%)</t>
         </is>
       </c>
       <c r="P153">
-        <v>0.0226</v>
+        <v>0.1015</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>5 (8.3%)</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>9 (5.0%)</t>
+          <t>38 (19.7%)</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>6 (12.5%)</t>
+          <t>13 (26.5%)</t>
         </is>
       </c>
       <c r="T153" t="inlineStr">
         <is>
-          <t>2 (2.3%)</t>
+          <t>33 (34.7%)</t>
         </is>
       </c>
       <c r="U153">
-        <v>0.0523</v>
+        <v>0.0091</v>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>4 (7.8%)</t>
+          <t>11 (20.4%)</t>
         </is>
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>2 (8.0%)</t>
+          <t>7 (26.9%)</t>
         </is>
       </c>
       <c r="X153" t="inlineStr">
         <is>
-          <t>10 (4.7%)</t>
+          <t>54 (23.4%)</t>
         </is>
       </c>
       <c r="Y153" t="inlineStr">
@@ -23289,29 +23289,29 @@
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2 (2.5%)</t>
+          <t>17 (20.2%)</t>
         </is>
       </c>
       <c r="AA153">
-        <v>0.4521</v>
+        <v>0.2036</v>
       </c>
       <c r="AB153" t="inlineStr">
         <is>
-          <t>9 (6.8%)</t>
+          <t>33 (22.6%)</t>
         </is>
       </c>
       <c r="AC153" t="inlineStr">
         <is>
-          <t>3 (2.4%)</t>
+          <t>33 (25.4%)</t>
         </is>
       </c>
       <c r="AD153" t="inlineStr">
         <is>
-          <t>6 (5.3%)</t>
+          <t>23 (19.0%)</t>
         </is>
       </c>
       <c r="AE153">
-        <v>0.0469</v>
+        <v>0.2125</v>
       </c>
       <c r="AF153" t="inlineStr">
         <is>
@@ -23322,141 +23322,146 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_compra</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Importancia del costo de compra</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>10 (5.3%)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>14 (6.7%)</t>
         </is>
       </c>
       <c r="F154">
-        <v>0.8111</v>
+        <v>0.1988</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>6 (10.7%)</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>9 (5.0%)</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>9 (5.6%)</t>
         </is>
       </c>
       <c r="J154">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>5.0 (3.8–5.0)</t>
+          <t>8 (9.3%)</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (5.3%)</t>
         </is>
       </c>
       <c r="P154">
-        <v>0.8077</v>
+        <v>0.1015</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5 (8.3%)</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>10 (5.2%)</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5 (10.2%)</t>
         </is>
       </c>
       <c r="T154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (4.2%)</t>
         </is>
       </c>
       <c r="U154">
-        <v>0.7325</v>
+        <v>0.0091</v>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="X154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>16 (6.9%)</t>
         </is>
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>4.0 (3.5–4.5)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (7.1%)</t>
         </is>
       </c>
       <c r="AA154">
-        <v>0.9723000000000001</v>
+        <v>0.2036</v>
       </c>
       <c r="AB154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>7 (4.8%)</t>
         </is>
       </c>
       <c r="AC154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (9.2%)</t>
         </is>
       </c>
       <c r="AD154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5 (4.1%)</t>
         </is>
       </c>
       <c r="AE154">
-        <v>0.305</v>
+        <v>0.2125</v>
       </c>
       <c r="AF154" t="inlineStr">
         <is>
@@ -23467,141 +23472,146 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_uso</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Importancia del costo de uso u operación</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Otro modo</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>12 (5.7%)</t>
         </is>
       </c>
       <c r="F155">
-        <v>0.5371</v>
+        <v>0.1988</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>9 (5.0%)</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>7 (4.3%)</t>
         </is>
       </c>
       <c r="J155">
-        <v>0.1163</v>
+        <v>0</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>4.0 (3.5–5.0)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (2.3%)</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>10 (4.4%)</t>
         </is>
       </c>
       <c r="P155">
-        <v>0.4208</v>
+        <v>0.1015</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>2 (3.3%)</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>10 (5.2%)</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="T155" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="U155">
-        <v>0.5163</v>
+        <v>0.0091</v>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (3.7%)</t>
         </is>
       </c>
       <c r="W155" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>2 (7.7%)</t>
         </is>
       </c>
       <c r="X155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>7 (3.0%)</t>
         </is>
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>4.0 (3.5–4.5)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5 (6.0%)</t>
         </is>
       </c>
       <c r="AA155">
-        <v>0.615</v>
+        <v>0.2036</v>
       </c>
       <c r="AB155" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>7 (4.8%)</t>
         </is>
       </c>
       <c r="AC155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (4.6%)</t>
         </is>
       </c>
       <c r="AD155" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>3 (2.5%)</t>
         </is>
       </c>
       <c r="AE155">
-        <v>0.7322</v>
+        <v>0.2125</v>
       </c>
       <c r="AF155" t="inlineStr">
         <is>
@@ -23612,141 +23622,146 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>p28_importancia_comodidad</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Importancia de la comodidad</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>97 (51.9%)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>89 (42.4%)</t>
         </is>
       </c>
       <c r="F156">
-        <v>0.8754999999999999</v>
+        <v>0.1988</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>5.0 (3.2–5.0)</t>
+          <t>13 (23.2%)</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>103 (57.2%)</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>70 (43.5%)</t>
         </is>
       </c>
       <c r="J156">
-        <v>0.6002</v>
+        <v>0</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>10 (47.6%)</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>10 (55.6%)</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>44 (51.2%)</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>18 (38.3%)</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>104 (46.2%)</t>
         </is>
       </c>
       <c r="P156">
-        <v>0.2872</v>
+        <v>0.1015</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>39 (65.0%)</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>86 (44.6%)</t>
         </is>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>22 (44.9%)</t>
         </is>
       </c>
       <c r="T156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>39 (41.1%)</t>
         </is>
       </c>
       <c r="U156">
-        <v>0.1948</v>
+        <v>0.0091</v>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>24 (44.4%)</t>
         </is>
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>4.0 (4.0–5.0)</t>
+          <t>9 (34.6%)</t>
         </is>
       </c>
       <c r="X156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>115 (49.8%)</t>
         </is>
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>1 (50.0%)</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>37 (44.0%)</t>
         </is>
       </c>
       <c r="AA156">
-        <v>0.0718</v>
+        <v>0.2036</v>
       </c>
       <c r="AB156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>63 (43.2%)</t>
         </is>
       </c>
       <c r="AC156" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>61 (46.9%)</t>
         </is>
       </c>
       <c r="AD156" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>62 (51.2%)</t>
         </is>
       </c>
       <c r="AE156">
-        <v>0.009900000000000001</v>
+        <v>0.2125</v>
       </c>
       <c r="AF156" t="inlineStr">
         <is>
@@ -23757,141 +23772,146 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>p28_importancia_tiempo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Importancia del tiempo de viaje</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Condiciones climáticas</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>15 (8.0%)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>18 (8.6%)</t>
         </is>
       </c>
       <c r="F157">
-        <v>0.5627</v>
+        <v>0.0299</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5 (8.9%)</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>17 (9.4%)</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>11 (6.8%)</t>
         </is>
       </c>
       <c r="J157">
-        <v>0.2615</v>
+        <v>0.0163</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>5.0 (4.8–5.0)</t>
+          <t>3 (16.7%)</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>9 (10.5%)</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>3 (6.4%)</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>16 (7.1%)</t>
         </is>
       </c>
       <c r="P157">
-        <v>0.4384</v>
+        <v>0.0376</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (9.8%)</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (6.2%)</t>
         </is>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>5.0 (4.8–5.0)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>11 (11.6%)</t>
         </is>
       </c>
       <c r="U157">
-        <v>0.5362</v>
+        <v>0.0363</v>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (7.3%)</t>
         </is>
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>3 (11.5%)</t>
         </is>
       </c>
       <c r="X157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>19 (8.2%)</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>4.5 (4.2–4.8)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>7 (8.3%)</t>
         </is>
       </c>
       <c r="AA157">
-        <v>0.5818</v>
+        <v>0.5742</v>
       </c>
       <c r="AB157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>14 (9.6%)</t>
         </is>
       </c>
       <c r="AC157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>10 (7.7%)</t>
         </is>
       </c>
       <c r="AD157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>9 (7.4%)</t>
         </is>
       </c>
       <c r="AE157">
-        <v>0.295</v>
+        <v>0.066</v>
       </c>
       <c r="AF157" t="inlineStr">
         <is>
@@ -23902,141 +23922,146 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_robo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de robo o atraco</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>27 (14.4%)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>18 (8.6%)</t>
         </is>
       </c>
       <c r="F158">
-        <v>0.5956</v>
+        <v>0.0299</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>3 (5.4%)</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>26 (14.4%)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>16 (9.9%)</t>
         </is>
       </c>
       <c r="J158">
-        <v>0.3124</v>
+        <v>0.0163</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>5.0 (4.2–5.0)</t>
+          <t>7 (38.9%)</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>13 (15.1%)</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (8.5%)</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>21 (9.3%)</t>
         </is>
       </c>
       <c r="P158">
-        <v>0.651</v>
+        <v>0.0376</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>7 (11.5%)</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>29 (15.0%)</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>8 (8.4%)</t>
         </is>
       </c>
       <c r="U158">
-        <v>0.9584</v>
+        <v>0.0363</v>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>7 (12.7%)</t>
         </is>
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (23.1%)</t>
         </is>
       </c>
       <c r="X158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>23 (10.0%)</t>
         </is>
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>3.5 (2.8–4.2)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>9 (10.7%)</t>
         </is>
       </c>
       <c r="AA158">
-        <v>0.7368</v>
+        <v>0.5742</v>
       </c>
       <c r="AB158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>24 (16.4%)</t>
         </is>
       </c>
       <c r="AC158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>9 (6.9%)</t>
         </is>
       </c>
       <c r="AD158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (9.8%)</t>
         </is>
       </c>
       <c r="AE158">
-        <v>0.9991</v>
+        <v>0.066</v>
       </c>
       <c r="AF158" t="inlineStr">
         <is>
@@ -24047,141 +24072,146 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_acoso</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de acoso</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Falta de información</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>20 (10.6%)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>31 (14.8%)</t>
         </is>
       </c>
       <c r="F159">
-        <v>0.0302</v>
+        <v>0.0299</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>31 (17.1%)</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>18 (11.2%)</t>
         </is>
       </c>
       <c r="J159">
-        <v>0.0178</v>
+        <v>0.0163</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>5 (5.8%)</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5 (10.6%)</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>37 (16.4%)</t>
         </is>
       </c>
       <c r="P159">
-        <v>0.1283</v>
+        <v>0.0376</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>11 (18.0%)</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>26 (13.5%)</t>
         </is>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>7 (14.3%)</t>
         </is>
       </c>
       <c r="T159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>7 (7.4%)</t>
         </is>
       </c>
       <c r="U159">
-        <v>0.31</v>
+        <v>0.0363</v>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>8 (14.5%)</t>
         </is>
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (3.8%)</t>
         </is>
       </c>
       <c r="X159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>28 (12.1%)</t>
         </is>
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>14 (16.7%)</t>
         </is>
       </c>
       <c r="AA159">
-        <v>0.7474</v>
+        <v>0.5742</v>
       </c>
       <c r="AB159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>21 (14.4%)</t>
         </is>
       </c>
       <c r="AC159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>13 (10.0%)</t>
         </is>
       </c>
       <c r="AD159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>17 (13.9%)</t>
         </is>
       </c>
       <c r="AE159">
-        <v>0.7475000000000001</v>
+        <v>0.066</v>
       </c>
       <c r="AF159" t="inlineStr">
         <is>
@@ -24192,141 +24222,146 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>p28_importancia_discriminacion</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de discriminación</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Falta de infraestructura</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>57 (30.3%)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>41 (19.5%)</t>
         </is>
       </c>
       <c r="F160">
-        <v>0.1461</v>
+        <v>0.0299</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>13 (23.2%)</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>48 (26.5%)</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>37 (23.0%)</t>
         </is>
       </c>
       <c r="J160">
-        <v>0.5839</v>
+        <v>0.0163</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>5.0 (3.2–5.0)</t>
+          <t>7 (33.3%)</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>22 (25.6%)</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>14 (29.8%)</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>54 (23.9%)</t>
         </is>
       </c>
       <c r="P160">
-        <v>0.3699</v>
+        <v>0.0376</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>14 (23.0%)</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>46 (23.8%)</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>8 (16.3%)</t>
         </is>
       </c>
       <c r="T160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>30 (31.6%)</t>
         </is>
       </c>
       <c r="U160">
-        <v>0.9051</v>
+        <v>0.0363</v>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>5.0 (3.5–5.0)</t>
+          <t>15 (27.3%)</t>
         </is>
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.8)</t>
+          <t>7 (26.9%)</t>
         </is>
       </c>
       <c r="X160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>56 (24.2%)</t>
         </is>
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>2 (100.0%)</t>
         </is>
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>18 (21.4%)</t>
         </is>
       </c>
       <c r="AA160">
-        <v>0.08069999999999999</v>
+        <v>0.5742</v>
       </c>
       <c r="AB160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>36 (24.7%)</t>
         </is>
       </c>
       <c r="AC160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>31 (23.8%)</t>
         </is>
       </c>
       <c r="AD160" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>31 (25.4%)</t>
         </is>
       </c>
       <c r="AE160">
-        <v>0.303</v>
+        <v>0.066</v>
       </c>
       <c r="AF160" t="inlineStr">
         <is>
@@ -24337,141 +24372,146 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>p28_importancia_emisiones</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Importancia del nivel de emisiones</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Inseguridad / violencia</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>61 (32.4%)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>92 (43.8%)</t>
         </is>
       </c>
       <c r="F161">
-        <v>0.2108</v>
+        <v>0.0299</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>31 (55.4%)</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>52 (28.7%)</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>70 (43.5%)</t>
         </is>
       </c>
       <c r="J161">
-        <v>0.0018</v>
+        <v>0.0163</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>8 (38.1%)</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5 (27.8%)</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>33 (38.4%)</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>20 (42.6%)</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>87 (38.5%)</t>
         </is>
       </c>
       <c r="P161">
-        <v>0.1222</v>
+        <v>0.0376</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>22 (36.1%)</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>71 (36.8%)</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>23 (46.9%)</t>
         </is>
       </c>
       <c r="T161" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>37 (38.9%)</t>
         </is>
       </c>
       <c r="U161">
-        <v>0.1785</v>
+        <v>0.0363</v>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>17 (30.9%)</t>
         </is>
       </c>
       <c r="W161" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>7 (26.9%)</t>
         </is>
       </c>
       <c r="X161" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>95 (41.1%)</t>
         </is>
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>4.0 (4.0–4.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>34 (40.5%)</t>
         </is>
       </c>
       <c r="AA161">
-        <v>0.0568</v>
+        <v>0.5742</v>
       </c>
       <c r="AB161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>42 (28.8%)</t>
         </is>
       </c>
       <c r="AC161" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>64 (49.2%)</t>
         </is>
       </c>
       <c r="AD161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>47 (38.5%)</t>
         </is>
       </c>
       <c r="AE161">
-        <v>0.427</v>
+        <v>0.066</v>
       </c>
       <c r="AF161" t="inlineStr">
         <is>
@@ -24482,141 +24522,146 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>p28_importancia_siniestralidad</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Importancia de la siniestralidad vial</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>10 (4.8%)</t>
         </is>
       </c>
       <c r="F162">
-        <v>0.4179</v>
+        <v>0.0299</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>2 (3.6%)</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>7 (3.9%)</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>9 (5.6%)</t>
         </is>
       </c>
       <c r="J162">
-        <v>0.1159</v>
+        <v>0.0163</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (4.7%)</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>4.0 (4.0–5.0)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>11 (4.9%)</t>
         </is>
       </c>
       <c r="P162">
-        <v>0.7204</v>
+        <v>0.0376</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>9 (4.7%)</t>
         </is>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>5.0 (3.8–5.0)</t>
+          <t>6 (12.2%)</t>
         </is>
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="U162">
-        <v>0.8884</v>
+        <v>0.0363</v>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (7.3%)</t>
         </is>
       </c>
       <c r="W162" t="inlineStr">
         <is>
-          <t>4.0 (3.5–5.0)</t>
+          <t>2 (7.7%)</t>
         </is>
       </c>
       <c r="X162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>10 (4.3%)</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>3.5 (2.8–4.2)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>2 (2.4%)</t>
         </is>
       </c>
       <c r="AA162">
-        <v>0.3629</v>
+        <v>0.5742</v>
       </c>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>4.5 (3.0–5.0)</t>
+          <t>9 (6.2%)</t>
         </is>
       </c>
       <c r="AC162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>3 (2.3%)</t>
         </is>
       </c>
       <c r="AD162" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (4.9%)</t>
         </is>
       </c>
       <c r="AE162">
-        <v>0.2816</v>
+        <v>0.066</v>
       </c>
       <c r="AF162" t="inlineStr">
         <is>
@@ -24627,13 +24672,141 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>p32_contaminacion_likert</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Nivel percibido de contaminación (escala Likert)</t>
-        </is>
+          <t>Importancia del costo de compra</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F163">
+        <v>0.2973</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>5.0 (3.2–5.0)</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>4.5 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="P163">
+        <v>0.5464</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="U163">
+        <v>0.5387</v>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="W163" t="inlineStr">
+        <is>
+          <t>4.5 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Y163" t="inlineStr">
+        <is>
+          <t>4.0 (3.5–4.5)</t>
+        </is>
+      </c>
+      <c r="Z163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AA163">
+        <v>0.8801</v>
+      </c>
+      <c r="AB163" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AC163" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AD163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AE163">
+        <v>0.8506</v>
       </c>
       <c r="AF163" t="inlineStr">
         <is>
@@ -24644,136 +24817,141 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>p36_influencia_amigos</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+          <t>Importancia del costo de uso u operación</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F164">
-        <v>0.3467</v>
+        <v>0.8855</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>3.0 (2.0–3.0)</t>
+          <t>4.0 (2.8–5.0)</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="J164">
-        <v>0.2983</v>
+        <v>0.1913</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>2.5 (2.0–3.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–3.8)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.5 (3.0–5.0)</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>3.0 (2.5–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="P164">
-        <v>0.5352</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>3.0 (2.0–3.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="T164" t="inlineStr">
         <is>
-          <t>4.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="U164">
-        <v>0.0757</v>
+        <v>0.8053</v>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>3.0 (1.5–4.8)</t>
         </is>
       </c>
       <c r="X164" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Y164" t="inlineStr">
+        <is>
+          <t>4.0 (3.5–4.5)</t>
         </is>
       </c>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="AA164">
-        <v>0.7604</v>
+        <v>0.2941</v>
       </c>
       <c r="AB164" t="inlineStr">
         <is>
-          <t>3.0 (2.5–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="AC164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="AD164" t="inlineStr">
         <is>
-          <t>3.0 (2.8–4.0)</t>
+          <t>4.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="AE164">
-        <v>0.8386</v>
+        <v>0.0309</v>
       </c>
       <c r="AF164" t="inlineStr">
         <is>
@@ -24784,138 +24962,1438 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
+          <t>p28_importancia_comodidad</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Importancia de la comodidad</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F165">
+        <v>0.4018</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J165">
+        <v>0.283</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>4.5 (3.2–5.0)</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="P165">
+        <v>0.0454</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="U165">
+        <v>0.4133</v>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="W165" t="inlineStr">
+        <is>
+          <t>4.0 (3.2–5.0)</t>
+        </is>
+      </c>
+      <c r="X165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Y165" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Z165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AA165">
+        <v>0.0658</v>
+      </c>
+      <c r="AB165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AC165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AD165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AE165">
+        <v>0.0245</v>
+      </c>
+      <c r="AF165" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>p28_importancia_tiempo</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Importancia del tiempo de viaje</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F166">
+        <v>0.3085</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J166">
+        <v>0.1252</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>5.0 (3.2–5.0)</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>5.0 (4.2–5.0)</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="P166">
+        <v>0.5492</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="U166">
+        <v>0.6806</v>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="W166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Y166" t="inlineStr">
+        <is>
+          <t>4.5 (4.2–4.8)</t>
+        </is>
+      </c>
+      <c r="Z166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AA166">
+        <v>0.6358</v>
+      </c>
+      <c r="AB166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AC166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AD166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AE166">
+        <v>0.2279</v>
+      </c>
+      <c r="AF166" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_robo</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de robo o atraco</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F167">
+        <v>0.2498</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J167">
+        <v>0.4304</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>5.0 (4.2–5.0)</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>4.5 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="P167">
+        <v>0.4119</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>5.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="U167">
+        <v>0.6802</v>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="W167" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Y167" t="inlineStr">
+        <is>
+          <t>3.5 (2.8–4.2)</t>
+        </is>
+      </c>
+      <c r="Z167" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AA167">
+        <v>0.6291</v>
+      </c>
+      <c r="AB167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AC167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AD167" t="inlineStr">
+        <is>
+          <t>5.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AE167">
+        <v>0.6133999999999999</v>
+      </c>
+      <c r="AF167" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_acoso</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de acoso</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F168">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J168">
+        <v>0.7961</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>5.0 (1.8–5.0)</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>4.0 (2.5–5.0)</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="P168">
+        <v>0.5327</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="U168">
+        <v>0.7363</v>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="W168" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="X168" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Y168" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="Z168" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AA168">
+        <v>0.0844</v>
+      </c>
+      <c r="AB168" t="inlineStr">
+        <is>
+          <t>4.0 (2.2–5.0)</t>
+        </is>
+      </c>
+      <c r="AC168" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AD168" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AE168">
+        <v>0.5616</v>
+      </c>
+      <c r="AF168" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>p28_importancia_discriminacion</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de discriminación</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F169">
+        <v>0.0013</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J169">
+        <v>0.8337</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>3.0 (1.2–5.0)</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>4.0 (1.5–5.0)</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="P169">
+        <v>0.8741</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>3.0 (1.5–5.0)</t>
+        </is>
+      </c>
+      <c r="U169">
+        <v>0.7161999999999999</v>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="W169" t="inlineStr">
+        <is>
+          <t>2.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Y169" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Z169" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AA169">
+        <v>0.1359</v>
+      </c>
+      <c r="AB169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AC169" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AD169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AE169">
+        <v>0.4057</v>
+      </c>
+      <c r="AF169" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>p28_importancia_emisiones</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Importancia del nivel de emisiones</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F170">
+        <v>0.2845</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J170">
+        <v>0.0011</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>3.5 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>4.0 (2.2–5.0)</t>
+        </is>
+      </c>
+      <c r="P170">
+        <v>0.8134</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="U170">
+        <v>0.5138</v>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>4.0 (1.5–5.0)</t>
+        </is>
+      </c>
+      <c r="W170" t="inlineStr">
+        <is>
+          <t>3.5 (2.2–4.8)</t>
+        </is>
+      </c>
+      <c r="X170" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Y170" t="inlineStr">
+        <is>
+          <t>2.5 (1.8–3.2)</t>
+        </is>
+      </c>
+      <c r="Z170" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AA170">
+        <v>0.0267</v>
+      </c>
+      <c r="AB170" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AC170" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AD170" t="inlineStr">
+        <is>
+          <t>4.0 (1.2–5.0)</t>
+        </is>
+      </c>
+      <c r="AE170">
+        <v>0.5503</v>
+      </c>
+      <c r="AF170" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>p28_importancia_siniestralidad</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Importancia de la siniestralidad vial</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F171">
+        <v>0.7138</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J171">
+        <v>0.0743</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>4.5 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="P171">
+        <v>0.3572</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="U171">
+        <v>0.6258</v>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="W171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="X171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Y171" t="inlineStr">
+        <is>
+          <t>3.5 (2.8–4.2)</t>
+        </is>
+      </c>
+      <c r="Z171" t="inlineStr">
+        <is>
+          <t>4.5 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AA171">
+        <v>0.7423999999999999</v>
+      </c>
+      <c r="AB171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AC171" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AD171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AE171">
+        <v>0.6419</v>
+      </c>
+      <c r="AF171" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>p32_contaminacion_likert</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Nivel percibido de contaminación (escala Likert)</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–3.0)</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F172">
+        <v>0.0027</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="J172">
+        <v>0.2919</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–3.0)</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–3.0)</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="U172">
+        <v>0.3413</v>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="W172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–3.0)</t>
+        </is>
+      </c>
+      <c r="X172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="Y172" t="inlineStr">
+        <is>
+          <t>4.0 (3.5–4.5)</t>
+        </is>
+      </c>
+      <c r="Z172" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AA172">
+        <v>0.0192</v>
+      </c>
+      <c r="AB172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–3.0)</t>
+        </is>
+      </c>
+      <c r="AC172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AD172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AE172">
+        <v>0.1136</v>
+      </c>
+      <c r="AF172" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>p36_influencia_amigos</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F173">
+        <v>0.3467</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–3.0)</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="J173">
+        <v>0.2983</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>2.5 (2.0–3.0)</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–3.8)</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>3.0 (2.5–4.0)</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="P173">
+        <v>0.5352</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–3.0)</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="U173">
+        <v>0.0757</v>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="W173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="Z173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AA173">
+        <v>0.7604</v>
+      </c>
+      <c r="AB173" t="inlineStr">
+        <is>
+          <t>3.0 (2.5–4.0)</t>
+        </is>
+      </c>
+      <c r="AC173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AD173" t="inlineStr">
+        <is>
+          <t>3.0 (2.8–4.0)</t>
+        </is>
+      </c>
+      <c r="AE173">
+        <v>0.8386</v>
+      </c>
+      <c r="AF173" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
           <t>p37_influencia_familia</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Influencia de la familia en la elección del transporte (Likert 1-5)</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>3.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>4.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="F165">
+      <c r="F174">
         <v>0.0246</v>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>3.0 (3.0–3.2)</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>3.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr">
+      <c r="I174" t="inlineStr">
         <is>
           <t>3.0 (2.2–4.0)</t>
         </is>
       </c>
-      <c r="J165">
+      <c r="J174">
         <v>0.1526</v>
       </c>
-      <c r="K165" t="inlineStr">
+      <c r="K174" t="inlineStr">
         <is>
           <t>3.0 (2.8–3.0)</t>
         </is>
       </c>
-      <c r="L165" t="inlineStr">
+      <c r="L174" t="inlineStr">
         <is>
           <t>4.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="M165" t="inlineStr">
+      <c r="M174" t="inlineStr">
         <is>
           <t>3.0 (2.0–4.0)</t>
         </is>
       </c>
-      <c r="N165" t="inlineStr">
+      <c r="N174" t="inlineStr">
         <is>
           <t>3.5 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="O165" t="inlineStr">
+      <c r="O174" t="inlineStr">
         <is>
           <t>3.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="P165">
+      <c r="P174">
         <v>0.0745</v>
       </c>
-      <c r="Q165" t="inlineStr">
+      <c r="Q174" t="inlineStr">
         <is>
           <t>3.5 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="R165" t="inlineStr">
+      <c r="R174" t="inlineStr">
         <is>
           <t>3.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="S165" t="inlineStr">
+      <c r="S174" t="inlineStr">
         <is>
           <t>3.0 (2.0–3.2)</t>
         </is>
       </c>
-      <c r="T165" t="inlineStr">
+      <c r="T174" t="inlineStr">
         <is>
           <t>3.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="U165">
+      <c r="U174">
         <v>0.1863</v>
       </c>
-      <c r="V165" t="inlineStr">
+      <c r="V174" t="inlineStr">
         <is>
           <t>4.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="W165" t="inlineStr">
+      <c r="W174" t="inlineStr">
         <is>
           <t>3.0 (2.0–4.0)</t>
         </is>
       </c>
-      <c r="X165" t="inlineStr">
+      <c r="X174" t="inlineStr">
         <is>
           <t>3.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="Z165" t="inlineStr">
+      <c r="Z174" t="inlineStr">
         <is>
           <t>3.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="AA165">
+      <c r="AA174">
         <v>0.4119</v>
       </c>
-      <c r="AB165" t="inlineStr">
+      <c r="AB174" t="inlineStr">
         <is>
           <t>3.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="AC165" t="inlineStr">
+      <c r="AC174" t="inlineStr">
         <is>
           <t>4.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="AD165" t="inlineStr">
+      <c r="AD174" t="inlineStr">
         <is>
           <t>3.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="AE165">
+      <c r="AE174">
         <v>0.2803</v>
       </c>
-      <c r="AF165" t="inlineStr">
+      <c r="AF174" t="inlineStr">
         <is>
           <t>Módulo 3</t>
         </is>
